--- a/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/利润总额.xlsx
+++ b/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/利润总额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,377 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>22.17844</v>
-      </c>
-      <c r="C2" t="n">
-        <v>127.85102</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25.66958</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.059</v>
-      </c>
-      <c r="F2" t="n">
-        <v>14.10962</v>
-      </c>
-      <c r="G2" t="n">
-        <v>56.62318</v>
-      </c>
-      <c r="H2" t="n">
-        <v>29.15131</v>
-      </c>
-      <c r="I2" t="n">
-        <v>32.86125</v>
-      </c>
-      <c r="J2" t="n">
-        <v>20.32831</v>
-      </c>
-      <c r="K2" t="n">
-        <v>34.3162</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1282.48</v>
-      </c>
-      <c r="M2" t="n">
-        <v>6.85635</v>
-      </c>
-      <c r="N2" t="n">
-        <v>12.84626</v>
-      </c>
-      <c r="O2" t="n">
-        <v>42.04504</v>
-      </c>
-      <c r="P2" t="n">
-        <v>6.28733</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.14838</v>
-      </c>
-      <c r="R2" t="n">
-        <v>43.54229</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.92388</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>2.17693</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.44052</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.34462</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.20597</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>120.3196</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>350.2334</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>80.73801</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>16.16537</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>7.2172</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>40.09866</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>33.69891</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>2.06176</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>22.96133</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>29.63296</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>26.82082</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1.03215</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>24.04451</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>13.28226</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>19.61152</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>12.57365</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.0259</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>33.65683</v>
-      </c>
-      <c r="C3" t="n">
-        <v>186.85232</v>
-      </c>
-      <c r="D3" t="n">
-        <v>30.75065</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>20.7561</v>
-      </c>
-      <c r="G3" t="n">
-        <v>63.72427</v>
-      </c>
-      <c r="H3" t="n">
-        <v>8.17543</v>
-      </c>
-      <c r="I3" t="n">
-        <v>38.79125</v>
-      </c>
-      <c r="J3" t="n">
-        <v>24.26826</v>
-      </c>
-      <c r="K3" t="n">
-        <v>44.76432</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1442.95</v>
-      </c>
-      <c r="M3" t="n">
-        <v>7.5911</v>
-      </c>
-      <c r="N3" t="n">
-        <v>13.52427</v>
-      </c>
-      <c r="O3" t="n">
-        <v>48.58471</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.97786</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.41187</v>
-      </c>
-      <c r="R3" t="n">
-        <v>43.6955</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.2477</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>12.67279</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.59345</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.80083</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.65064</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>132.56505</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>328.2904</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>105.47715</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>15.66549</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1.34187</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>45.89188</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>33.29134</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1.93844</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>24.28767</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>41.61022</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>30.05168</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.38307</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>33.48456</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>19.74735</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>25.57952</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>14.75235</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.09904</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>49.64654</v>
-      </c>
-      <c r="C4" t="n">
-        <v>291.59853</v>
-      </c>
-      <c r="D4" t="n">
-        <v>33.49307</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>27.5793</v>
-      </c>
-      <c r="G4" t="n">
-        <v>115.79759</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9.68168</v>
-      </c>
-      <c r="I4" t="n">
-        <v>46.16727</v>
-      </c>
-      <c r="J4" t="n">
-        <v>25.55097</v>
-      </c>
-      <c r="K4" t="n">
-        <v>51.79636</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1877.22</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9.192299999999999</v>
-      </c>
-      <c r="N4" t="n">
-        <v>17.38215</v>
-      </c>
-      <c r="O4" t="n">
-        <v>83.21687</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9.758710000000001</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.28969</v>
-      </c>
-      <c r="R4" t="n">
-        <v>46.05671</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.48131</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>23.37054</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.93401</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.05111</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.86595</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>182.86767</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>330.17867</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>117.04141</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>23.10909</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>21.01173</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>53.8185</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>43.98435</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>3.18625</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>46.0485</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>52.02428</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>33.43468</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.36513</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>35.19346</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>27.0256</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>38.25544</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>22.75622</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.07199</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
